--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katy\Desktop\VVSS\Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katy\Desktop\VVSS\Lab1\01_Tasks\01_Tasks\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0EBCDD-4C04-440D-8FB7-9E1C433D2E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2AC55A-6C0E-4B61-A5BF-92D1DF535128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="650" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="80">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -254,6 +254,30 @@
   </si>
   <si>
     <t>private static ClassLoader classLoader = Main.class.getClassLoader();</t>
+  </si>
+  <si>
+    <t>public ArrayList&lt;Task&gt; tasks;</t>
+  </si>
+  <si>
+    <t>TaskOperations line 9</t>
+  </si>
+  <si>
+    <t>public List&lt;Task&gt; tasks;</t>
+  </si>
+  <si>
+    <t>The type task should be an interface.</t>
+  </si>
+  <si>
+    <t>if (task.equals(null))</t>
+  </si>
+  <si>
+    <t>if (task == null)</t>
+  </si>
+  <si>
+    <t>ArrayTaskList line 56</t>
+  </si>
+  <si>
+    <t>Consider using "==null"</t>
   </si>
 </sst>
 </file>
@@ -490,6 +514,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -531,10 +559,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,7 +903,7 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -900,19 +924,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -936,10 +960,10 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="27"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -954,10 +978,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="29"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -973,15 +997,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -1214,19 +1238,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1250,10 +1274,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="30"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1268,10 +1292,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="32"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1287,15 +1311,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -1526,19 +1550,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1562,10 +1586,10 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1580,10 +1604,10 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="35"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1599,15 +1623,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -1860,8 +1884,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1882,19 +1906,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1907,10 +1931,10 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="22" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1918,15 +1942,15 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="22" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1934,15 +1958,15 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="22" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1951,8 +1975,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1976,7 +2000,7 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="23" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1994,10 +2018,10 @@
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="23" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -2021,25 +2045,41 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
@@ -2202,11 +2242,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>
